--- a/証拠レベルとECO対応表20250816.xlsx
+++ b/証拠レベルとECO対応表20250816.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/仕事m2019_/理研仕事m/研究・開発/科研費/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1AEE5CF-9A8B-7445-ACD3-59A060273B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5536D00B-B2E6-5243-B263-CCC90FAAD8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="860" windowWidth="28300" windowHeight="17360" xr2:uid="{16118D68-6881-4748-99F7-A21B6AB90E51}"/>
+    <workbookView xWindow="940" yWindow="860" windowWidth="28300" windowHeight="17360" xr2:uid="{16118D68-6881-4748-99F7-A21B6AB90E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,242 +50,293 @@
     <t>使い方メモ</t>
   </si>
   <si>
+    <t>IDA/IPI 系は E1 に直載せ。配下の SPR, PBM, 結合アッセイ等は自動で吸収。(evidenceontology.org, amigo.geneontology.org)</t>
+  </si>
+  <si>
+    <t>E2 介入あり in vivo / 臨床</t>
+  </si>
+  <si>
+    <t>動物モデル・臨床での因果支持</t>
+  </si>
+  <si>
+    <t>in vivo/臨床はここに。E1 の“直接性”より「生体で効いた」を重視。(evidenceontology.org, zfin.org)</t>
+  </si>
+  <si>
+    <t>E3 非介入の機構裏付け / in silico</t>
+  </si>
+  <si>
+    <t>経路整合・細胞系の支持・計算補助</t>
+  </si>
+  <si>
+    <t>経路一貫性、シグネチャ一致、ネットワーク推論など“補助的な裏付け”。(evidenceontology.org, microbialphenotypes.org)</t>
+  </si>
+  <si>
+    <t>E4 二次情報・記述</t>
+  </si>
+  <si>
+    <t>レビューや著者記述、キュレーター推論</t>
+  </si>
+  <si>
+    <t>出典に依るが一次実験ではない。重みは最小。(evidenceontology.org)</t>
+  </si>
+  <si>
+    <r>
+      <t>ECO:0000314</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> direct assay evidence used in manual assertion（IDA）|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECO:0000353</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> physical interaction evidence used in manual assertion（IPI）|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECO:0000181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in vitro assay evidence</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ECO:0000179</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> animal model system study evidence|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECO:0007121</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clinical study evidence used in manual assertion</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ECO:0007672</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> computational evidence|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECO:0000245</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> automatically integrated combinatorial evidence used in manual assertion|（必要に応じ）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECO:0000044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sequence similarity evidence|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECO:0000201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sequence orthology evidenceなど</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ECO:0000304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> author statement supported by traceable reference used in manual assertion（TAS）|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECO:0000303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> author statement without traceable support used in manual assertion（NAS）|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECO:0000305</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> curator inference used in manual assertion（IC）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>E1 直接実験（機構）</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>直接作用・物理相互作用</t>
-  </si>
-  <si>
-    <t>IDA/IPI 系は E1 に直載せ。配下の SPR, PBM, 結合アッセイ等は自動で吸収。(evidenceontology.org, amigo.geneontology.org)</t>
-  </si>
-  <si>
-    <t>E2 介入あり in vivo / 臨床</t>
-  </si>
-  <si>
-    <t>動物モデル・臨床での因果支持</t>
-  </si>
-  <si>
-    <r>
-      <t>ECO:0000179</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> animal model system study evidence／</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECO:0007121</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clinical study evidence used in manual assertion</t>
-    </r>
-  </si>
-  <si>
-    <t>in vivo/臨床はここに。E1 の“直接性”より「生体で効いた」を重視。(evidenceontology.org, zfin.org)</t>
-  </si>
-  <si>
-    <t>E3 非介入の機構裏付け / in silico</t>
-  </si>
-  <si>
-    <t>経路整合・細胞系の支持・計算補助</t>
-  </si>
-  <si>
-    <r>
-      <t>ECO:0007672</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> computational evidence／</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECO:0000245</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> automatically integrated combinatorial evidence used in manual assertion／（必要に応じ）sequence similarity など</t>
-    </r>
-  </si>
-  <si>
-    <t>経路一貫性、シグネチャ一致、ネットワーク推論など“補助的な裏付け”。(evidenceontology.org, microbialphenotypes.org)</t>
-  </si>
-  <si>
-    <t>E4 二次情報・記述</t>
-  </si>
-  <si>
-    <t>レビューや著者記述、キュレーター推論</t>
-  </si>
-  <si>
-    <r>
-      <t>ECO:0000304</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> traceable author statement（TAS）／</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECO:0000303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> non-traceable author statement（NAS）／</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECO:0000305</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> curator inference（IC）</t>
-    </r>
-  </si>
-  <si>
-    <t>出典に依るが一次実験ではない。重みは最小。(evidenceontology.org)</t>
-  </si>
-  <si>
-    <r>
-      <t>ECO:0000314</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> direct assay evidence used in manual assertion（IDA）|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECO:0000353</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> physical interaction evidence used in manual assertion（IPI）|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECO:0000181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in vitro assay evidence</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,15 +404,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,18 +755,19 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,60 +781,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="63">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="42">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" ht="84">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:4" ht="84">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
